--- a/public/downloads/excel-templates/users_template.xlsx
+++ b/public/downloads/excel-templates/users_template.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>Name</t>
   </si>
@@ -55,6 +55,24 @@
   </si>
   <si>
     <t>noeltest@noel.com</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password`</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
 </sst>
 </file>
@@ -410,38 +428,38 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F1" sqref="F1" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -455,7 +473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -484,7 +502,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -496,7 +514,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
